--- a/Financial Modelling Prep Library/Company Financial Data/EOG/annual/stock_price_data.xlsx
+++ b/Financial Modelling Prep Library/Company Financial Data/EOG/annual/stock_price_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>high</t>
   </si>
@@ -26,30 +26,6 @@
   </si>
   <si>
     <t>index</t>
-  </si>
-  <si>
-    <t>EOG-FY-1994</t>
-  </si>
-  <si>
-    <t>EOG-FY-1995</t>
-  </si>
-  <si>
-    <t>EOG-FY-1996</t>
-  </si>
-  <si>
-    <t>EOG-FY-1997</t>
-  </si>
-  <si>
-    <t>EOG-FY-1998</t>
-  </si>
-  <si>
-    <t>EOG-FY-1999</t>
-  </si>
-  <si>
-    <t>EOG-FY-2000</t>
-  </si>
-  <si>
-    <t>EOG-FY-2001</t>
   </si>
   <si>
     <t>EOG-FY-2002</t>
@@ -467,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -491,19 +467,28 @@
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="B2">
+        <v>11.03750038146973</v>
+      </c>
+      <c r="C2">
+        <v>7.505000114440918</v>
+      </c>
+      <c r="D2">
+        <v>9.352063491230918</v>
+      </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B3">
-        <v>6.34375</v>
+        <v>11.88000011444092</v>
       </c>
       <c r="C3">
-        <v>4.28125</v>
+        <v>8.925000190734863</v>
       </c>
       <c r="D3">
-        <v>5.403149801587301</v>
+        <v>10.23094242716592</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -511,13 +496,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>7.65625</v>
+        <v>19.125</v>
       </c>
       <c r="C4">
-        <v>5.59375</v>
+        <v>10.61250019073486</v>
       </c>
       <c r="D4">
-        <v>6.410943675889328</v>
+        <v>14.26345240880573</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -525,13 +510,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>6.75</v>
+        <v>41</v>
       </c>
       <c r="C5">
-        <v>4.375</v>
+        <v>16.02499961853027</v>
       </c>
       <c r="D5">
-        <v>5.260375494071146</v>
+        <v>28.35580045526678</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -539,13 +524,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>6.125</v>
+        <v>43.45500183105469</v>
       </c>
       <c r="C6">
-        <v>2.9375</v>
+        <v>28.15500068664551</v>
       </c>
       <c r="D6">
-        <v>4.676587301587301</v>
+        <v>34.4394422508331</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -553,13 +538,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>6.34375</v>
+        <v>45.81499862670898</v>
       </c>
       <c r="C7">
-        <v>3.59375</v>
+        <v>29.60499954223633</v>
       </c>
       <c r="D7">
-        <v>4.842261904761905</v>
+        <v>37.31140000152588</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -567,13 +552,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>14.171875</v>
+        <v>72.49500274658203</v>
       </c>
       <c r="C8">
-        <v>3.421875</v>
+        <v>27.20999908447266</v>
       </c>
       <c r="D8">
-        <v>7.751621176602812</v>
+        <v>50.96017776459102</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -581,13 +566,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>13.875</v>
+        <v>50.88000106811523</v>
       </c>
       <c r="C9">
-        <v>6.449999809265137</v>
+        <v>22.51499938964844</v>
       </c>
       <c r="D9">
-        <v>9.809896249037523</v>
+        <v>36.60805562185863</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -595,13 +580,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>11.03750038146973</v>
+        <v>57.47499847412109</v>
       </c>
       <c r="C10">
-        <v>7.505000114440918</v>
+        <v>42.70999908447266</v>
       </c>
       <c r="D10">
-        <v>9.352063491230918</v>
+        <v>48.80924598754398</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -609,13 +594,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>11.88000011444092</v>
+        <v>60.72000122070312</v>
       </c>
       <c r="C11">
-        <v>8.925000190734863</v>
+        <v>33.40499877929688</v>
       </c>
       <c r="D11">
-        <v>10.23094242716592</v>
+        <v>49.96734139275929</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -623,13 +608,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>19.125</v>
+        <v>62.25</v>
       </c>
       <c r="C12">
-        <v>10.61250019073486</v>
+        <v>41.2400016784668</v>
       </c>
       <c r="D12">
-        <v>14.26345240880573</v>
+        <v>53.91599993896484</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -637,13 +622,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>41</v>
+        <v>94.15000152587891</v>
       </c>
       <c r="C13">
-        <v>16.02499961853027</v>
+        <v>56.02500152587891</v>
       </c>
       <c r="D13">
-        <v>28.35580045526678</v>
+        <v>72.78228166368272</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -651,13 +636,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>43.45500183105469</v>
+        <v>118.8899993896484</v>
       </c>
       <c r="C14">
-        <v>28.15500068664551</v>
+        <v>80.62999725341797</v>
       </c>
       <c r="D14">
-        <v>34.4394422508331</v>
+        <v>99.04458348713224</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -665,13 +650,13 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>45.81499862670898</v>
+        <v>101.3600006103516</v>
       </c>
       <c r="C15">
-        <v>29.60499954223633</v>
+        <v>68.15000152587891</v>
       </c>
       <c r="D15">
-        <v>37.31140000152588</v>
+        <v>85.4027777475024</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -679,13 +664,13 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>72.49500274658203</v>
+        <v>109.370002746582</v>
       </c>
       <c r="C16">
-        <v>27.20999908447266</v>
+        <v>57.15000152587891</v>
       </c>
       <c r="D16">
-        <v>50.96017776459102</v>
+        <v>83.65853753674172</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -693,13 +678,13 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>50.88000106811523</v>
+        <v>109.6600036621094</v>
       </c>
       <c r="C17">
-        <v>22.51499938964844</v>
+        <v>81.98999786376953</v>
       </c>
       <c r="D17">
-        <v>36.60805562185863</v>
+        <v>95.69605592522488</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -707,13 +692,13 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>57.47499847412109</v>
+        <v>133.5299987792969</v>
       </c>
       <c r="C18">
-        <v>42.70999908447266</v>
+        <v>82.04000091552734</v>
       </c>
       <c r="D18">
-        <v>48.80924598754398</v>
+        <v>113.328440032959</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -721,13 +706,13 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>60.72000122070312</v>
+        <v>107.8899993896484</v>
       </c>
       <c r="C19">
-        <v>33.40499877929688</v>
+        <v>64.33000183105469</v>
       </c>
       <c r="D19">
-        <v>49.96734139275929</v>
+        <v>85.51539666312081</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -735,13 +720,13 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>62.25</v>
+        <v>89.54000091552734</v>
       </c>
       <c r="C20">
-        <v>41.2400016784668</v>
+        <v>27</v>
       </c>
       <c r="D20">
-        <v>53.91599993896484</v>
+        <v>50.47877461731198</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -749,124 +734,12 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>94.15000152587891</v>
+        <v>98.19999694824219</v>
       </c>
       <c r="C21">
-        <v>56.02500152587891</v>
+        <v>48.59999847412109</v>
       </c>
       <c r="D21">
-        <v>72.78228166368272</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22">
-        <v>118.8899993896484</v>
-      </c>
-      <c r="C22">
-        <v>80.62999725341797</v>
-      </c>
-      <c r="D22">
-        <v>99.04458348713224</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23">
-        <v>101.3600006103516</v>
-      </c>
-      <c r="C23">
-        <v>68.15000152587891</v>
-      </c>
-      <c r="D23">
-        <v>85.4027777475024</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24">
-        <v>109.370002746582</v>
-      </c>
-      <c r="C24">
-        <v>57.15000152587891</v>
-      </c>
-      <c r="D24">
-        <v>83.65853753674172</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25">
-        <v>109.6600036621094</v>
-      </c>
-      <c r="C25">
-        <v>81.98999786376953</v>
-      </c>
-      <c r="D25">
-        <v>95.69605592522488</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26">
-        <v>133.5299987792969</v>
-      </c>
-      <c r="C26">
-        <v>82.04000091552734</v>
-      </c>
-      <c r="D26">
-        <v>113.328440032959</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27">
-        <v>107.8899993896484</v>
-      </c>
-      <c r="C27">
-        <v>64.33000183105469</v>
-      </c>
-      <c r="D27">
-        <v>85.51539666312081</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28">
-        <v>89.54000091552734</v>
-      </c>
-      <c r="C28">
-        <v>27</v>
-      </c>
-      <c r="D28">
-        <v>50.47877461731198</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29">
-        <v>98.19999694824219</v>
-      </c>
-      <c r="C29">
-        <v>48.59999847412109</v>
-      </c>
-      <c r="D29">
         <v>76.38376976194836</v>
       </c>
     </row>
